--- a/20-12-2019-Plan-Project-Book Meeting Room-เซฟ.xlsx
+++ b/20-12-2019-Plan-Project-Book Meeting Room-เซฟ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4B148B-1B63-45F2-821C-EE396A2B331B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D122562F-7F13-4976-8120-2F03755D251E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,9 +202,6 @@
     <t>4.4 สร้าง Controller ฝั่ง Frontend</t>
   </si>
   <si>
-    <t>5.1 สร้าง Tasting</t>
-  </si>
-  <si>
     <t>7.1 สอนการใช้งาน</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>BookMeetingRoom</t>
+  </si>
+  <si>
+    <t>5.1 สร้าง Testing</t>
   </si>
 </sst>
 </file>
@@ -2331,8 +2331,8 @@
   </sheetPr>
   <dimension ref="A1:BO33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2359,7 +2359,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="21"/>
@@ -2420,7 +2420,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="104" t="s">
@@ -3352,13 +3352,13 @@
     </row>
     <row r="9" spans="1:67" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B9" s="101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="44">
         <v>1</v>
@@ -3864,7 +3864,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="44">
         <v>1</v>
@@ -4123,7 +4123,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="44">
         <v>1</v>
@@ -4460,7 +4460,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="44">
         <v>1</v>
@@ -4553,7 +4553,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="48">
         <v>1</v>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="48">
         <v>1</v>
@@ -4978,16 +4978,16 @@
     </row>
     <row r="18" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="44">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F18" s="40">
         <f>G16</f>
@@ -5075,10 +5075,10 @@
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="48">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F19" s="43">
         <f>G18</f>
@@ -5166,10 +5166,10 @@
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="44">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F20" s="94">
         <f>G19</f>
@@ -5257,10 +5257,10 @@
       </c>
       <c r="C21" s="98"/>
       <c r="D21" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="44">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F21" s="94">
         <f>G20</f>
@@ -5423,13 +5423,13 @@
     </row>
     <row r="23" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="51" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C23" s="39" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="48">
         <v>0</v>
@@ -5448,7 +5448,7 @@
       <c r="I23" s="58"/>
       <c r="J23" s="50">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I23-Milestones[[#This Row],[End Date]])</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K23" s="61" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I23-G23&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -5592,13 +5592,13 @@
     </row>
     <row r="25" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="39" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="48">
         <v>0</v>
@@ -5617,7 +5617,7 @@
       <c r="I25" s="57"/>
       <c r="J25" s="50">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I25-Milestones[[#This Row],[End Date]])</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K25" s="61" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I25-G25&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -5761,13 +5761,13 @@
     </row>
     <row r="27" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="48">
         <v>0</v>
@@ -5786,7 +5786,7 @@
       <c r="I27" s="57"/>
       <c r="J27" s="50">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I27-Milestones[[#This Row],[End Date]])</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K27" s="61" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I27-G27&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -5930,13 +5930,13 @@
     </row>
     <row r="29" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="48">
         <v>0</v>
@@ -5955,7 +5955,7 @@
       <c r="I29" s="57"/>
       <c r="J29" s="50">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I29-Milestones[[#This Row],[End Date]])</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K29" s="61" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I29-G29&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6101,13 +6101,13 @@
     </row>
     <row r="31" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31" s="85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="87" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="48">
         <v>0</v>
@@ -6126,7 +6126,7 @@
       <c r="I31" s="89"/>
       <c r="J31" s="50">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I31-Milestones[[#This Row],[End Date]])</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K31" s="61" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I31-G31&gt;0,"Delay","Complete"))),"Complete")</f>

--- a/20-12-2019-Plan-Project-Book Meeting Room-เซฟ.xlsx
+++ b/20-12-2019-Plan-Project-Book Meeting Room-เซฟ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D122562F-7F13-4976-8120-2F03755D251E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33955DF7-106A-4B6B-AAA6-E5D189489B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2331,8 +2331,8 @@
   </sheetPr>
   <dimension ref="A1:BO33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5078,7 +5078,7 @@
         <v>54</v>
       </c>
       <c r="E19" s="48">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F19" s="43">
         <f>G18</f>
@@ -5448,7 +5448,7 @@
       <c r="I23" s="58"/>
       <c r="J23" s="50">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I23-Milestones[[#This Row],[End Date]])</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K23" s="61" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I23-G23&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -5617,7 +5617,7 @@
       <c r="I25" s="57"/>
       <c r="J25" s="50">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I25-Milestones[[#This Row],[End Date]])</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K25" s="61" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I25-G25&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -5786,7 +5786,7 @@
       <c r="I27" s="57"/>
       <c r="J27" s="50">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I27-Milestones[[#This Row],[End Date]])</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K27" s="61" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I27-G27&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -5955,7 +5955,7 @@
       <c r="I29" s="57"/>
       <c r="J29" s="50">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I29-Milestones[[#This Row],[End Date]])</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K29" s="61" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I29-G29&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6126,7 +6126,7 @@
       <c r="I31" s="89"/>
       <c r="J31" s="50">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I31-Milestones[[#This Row],[End Date]])</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K31" s="61" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I31-G31&gt;0,"Delay","Complete"))),"Complete")</f>

--- a/20-12-2019-Plan-Project-Book Meeting Room-เซฟ.xlsx
+++ b/20-12-2019-Plan-Project-Book Meeting Room-เซฟ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33955DF7-106A-4B6B-AAA6-E5D189489B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A123E07-A15A-4A49-89ED-B019912C71C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <definedName name="Today" localSheetId="0">TODAY()</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
   <si>
     <t>About This Template</t>
   </si>
@@ -157,9 +158,6 @@
     <t>Develop frame work: Angular, Spring-boot</t>
   </si>
   <si>
-    <t>6. UAT</t>
-  </si>
-  <si>
     <t>5. Testing</t>
   </si>
   <si>
@@ -193,15 +191,6 @@
     <t>3.3 Design User Interface</t>
   </si>
   <si>
-    <t>4.2 สร้าง User Interface</t>
-  </si>
-  <si>
-    <t>4.3 สร้าง Controller ฝั่ง Backend</t>
-  </si>
-  <si>
-    <t>4.4 สร้าง Controller ฝั่ง Frontend</t>
-  </si>
-  <si>
     <t>7.1 สอนการใช้งาน</t>
   </si>
   <si>
@@ -209,9 +198,6 @@
   </si>
   <si>
     <t>9.1 คู่มือ</t>
-  </si>
-  <si>
-    <t>4.1 สร้าง Entity Backend</t>
   </si>
   <si>
     <t>1.1 ขอ Requirement เรื่องจองห้องประชุม online กับพี่ฟาน(HR) , พี่เกตุ(HR) , พี่แพท(HR)</t>
@@ -229,7 +215,46 @@
     <t>BookMeetingRoom</t>
   </si>
   <si>
-    <t>5.1 สร้าง Testing</t>
+    <t>4.1 สร้าง Entity Backend ระบบ Book Meeting Room</t>
+  </si>
+  <si>
+    <t>4.2 สร้าง User Interface ระบบ Book Meeting Room</t>
+  </si>
+  <si>
+    <t>5.1 สร้าง Unit Test</t>
+  </si>
+  <si>
+    <t>4.3 สร้าง Controller ฝั่ง Backend ระบบ Book Meeting Room</t>
+  </si>
+  <si>
+    <t>4.4 สร้าง Controller ฝั่ง Frontend ระบบ Book Meeting Room</t>
+  </si>
+  <si>
+    <t>4.5 สร้าง Entity Backend ระบบ Dashboard</t>
+  </si>
+  <si>
+    <t>4.6 สร้าง User Interface ระบบ Dashboard</t>
+  </si>
+  <si>
+    <t>4.7 สร้าง Controller ฝั่ง Backend ระบบ Dashboard</t>
+  </si>
+  <si>
+    <t>4.8 สร้าง Controller ฝั่ง Frontend ระบบ Dashboard</t>
+  </si>
+  <si>
+    <t>4.9 สร้าง Entity Backend ระบบ System Admin</t>
+  </si>
+  <si>
+    <t>4.10 สร้าง User Interface ระบบ System Admin</t>
+  </si>
+  <si>
+    <t>4.11 สร้าง Controller ฝั่ง Backend ระบบ System Admin</t>
+  </si>
+  <si>
+    <t>4.12 สร้าง Controller ฝั่ง Frontend ระบบ System Admin</t>
+  </si>
+  <si>
+    <t>6. User Acceptance Test</t>
   </si>
 </sst>
 </file>
@@ -241,7 +266,7 @@
     <numFmt numFmtId="165" formatCode="d"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +425,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -462,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -788,6 +819,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -816,7 +903,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1116,6 +1203,18 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="29" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1869,7 +1968,7 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
@@ -2037,7 +2136,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:K31" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:K39" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Priority" dataDxfId="8"/>
@@ -2329,10 +2428,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO33"/>
+  <dimension ref="A1:BO41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A24" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2359,7 +2458,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="21"/>
@@ -2384,55 +2483,55 @@
       <c r="G2" s="25"/>
       <c r="H2" s="26"/>
       <c r="I2" s="54"/>
-      <c r="L2" s="110" t="s">
+      <c r="L2" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="Q2" s="111" t="s">
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="Q2" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="V2" s="112" t="s">
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="V2" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="AA2" s="102" t="s">
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="AA2" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AF2" s="103" t="s">
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
+      <c r="AF2" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="103"/>
-      <c r="AI2" s="103"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C3" s="22"/>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="107">
+      <c r="E3" s="109"/>
+      <c r="F3" s="111">
         <f ca="1">IFERROR(IF(MIN(Milestones[Start Date])=0,TODAY(),MIN(Milestones[Start Date])),TODAY())</f>
         <v>43787</v>
       </c>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="113"/>
       <c r="I3" s="37"/>
       <c r="J3" s="36"/>
       <c r="K3" s="52"/>
@@ -2444,10 +2543,10 @@
       <c r="B4" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="12">
         <v>0</v>
       </c>
@@ -2537,15 +2636,15 @@
       <c r="A5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
       <c r="K5" s="52"/>
       <c r="L5" s="16">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
@@ -2716,15 +2815,15 @@
         <v>43828</v>
       </c>
       <c r="BB5" s="16">
-        <f ca="1">BA5+1</f>
+        <f t="shared" ref="BB5:BO5" ca="1" si="1">BA5+1</f>
         <v>43829</v>
       </c>
       <c r="BC5" s="17">
-        <f ca="1">BB5+1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>43830</v>
       </c>
       <c r="BD5" s="17">
-        <f t="shared" ref="BD5:BH5" ca="1" si="1">BC5+1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>43831</v>
       </c>
       <c r="BE5" s="17">
@@ -2744,31 +2843,31 @@
         <v>43835</v>
       </c>
       <c r="BI5" s="16">
-        <f ca="1">BH5+1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>43836</v>
       </c>
       <c r="BJ5" s="17">
-        <f ca="1">BI5+1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>43837</v>
       </c>
       <c r="BK5" s="17">
-        <f t="shared" ref="BK5:BO5" ca="1" si="2">BJ5+1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>43838</v>
       </c>
       <c r="BL5" s="17">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>43839</v>
       </c>
       <c r="BM5" s="17">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>43840</v>
       </c>
       <c r="BN5" s="17">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>43841</v>
       </c>
       <c r="BO5" s="18">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>43842</v>
       </c>
     </row>
@@ -2878,227 +2977,227 @@
         <v>32</v>
       </c>
       <c r="L7" s="9" t="str">
-        <f t="shared" ref="L7" ca="1" si="3">LEFT(TEXT(L5,"ddd"),1)</f>
+        <f ca="1">LEFT(TEXT(L5,"ddd"),1)</f>
         <v>จ</v>
       </c>
       <c r="M7" s="9" t="str">
-        <f t="shared" ref="M7:AU7" ca="1" si="4">LEFT(TEXT(M5,"ddd"),1)</f>
+        <f t="shared" ref="M7:AU7" ca="1" si="2">LEFT(TEXT(M5,"ddd"),1)</f>
         <v>อ</v>
       </c>
       <c r="N7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>พ</v>
       </c>
       <c r="O7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>พ</v>
       </c>
       <c r="P7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>ศ</v>
       </c>
       <c r="Q7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>ส</v>
       </c>
       <c r="R7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>อ</v>
       </c>
       <c r="S7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>จ</v>
       </c>
       <c r="T7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>อ</v>
       </c>
       <c r="U7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>พ</v>
       </c>
       <c r="V7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>พ</v>
       </c>
       <c r="W7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>ศ</v>
       </c>
       <c r="X7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>ส</v>
       </c>
       <c r="Y7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>อ</v>
       </c>
       <c r="Z7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>จ</v>
       </c>
       <c r="AA7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>อ</v>
       </c>
       <c r="AB7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>พ</v>
       </c>
       <c r="AC7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>พ</v>
       </c>
       <c r="AD7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>ศ</v>
       </c>
       <c r="AE7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>ส</v>
       </c>
       <c r="AF7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>อ</v>
       </c>
       <c r="AG7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>จ</v>
       </c>
       <c r="AH7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>อ</v>
       </c>
       <c r="AI7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>พ</v>
       </c>
       <c r="AJ7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>พ</v>
       </c>
       <c r="AK7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>ศ</v>
       </c>
       <c r="AL7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>ส</v>
       </c>
       <c r="AM7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>อ</v>
       </c>
       <c r="AN7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>จ</v>
       </c>
       <c r="AO7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>อ</v>
       </c>
       <c r="AP7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>พ</v>
       </c>
       <c r="AQ7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>พ</v>
       </c>
       <c r="AR7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>ศ</v>
       </c>
       <c r="AS7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>ส</v>
       </c>
       <c r="AT7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>อ</v>
       </c>
       <c r="AU7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>จ</v>
       </c>
       <c r="AV7" s="9" t="str">
-        <f t="shared" ref="AV7:BO7" ca="1" si="5">LEFT(TEXT(AV5,"ddd"),1)</f>
+        <f t="shared" ref="AV7:BO7" ca="1" si="3">LEFT(TEXT(AV5,"ddd"),1)</f>
         <v>อ</v>
       </c>
       <c r="AW7" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>พ</v>
       </c>
       <c r="AX7" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>พ</v>
       </c>
       <c r="AY7" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>ศ</v>
       </c>
       <c r="AZ7" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>ส</v>
       </c>
       <c r="BA7" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>อ</v>
       </c>
       <c r="BB7" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>จ</v>
       </c>
       <c r="BC7" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>อ</v>
       </c>
       <c r="BD7" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>พ</v>
       </c>
       <c r="BE7" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>พ</v>
       </c>
       <c r="BF7" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>ศ</v>
       </c>
       <c r="BG7" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>ส</v>
       </c>
       <c r="BH7" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>อ</v>
       </c>
       <c r="BI7" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>จ</v>
       </c>
       <c r="BJ7" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>อ</v>
       </c>
       <c r="BK7" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>พ</v>
       </c>
       <c r="BL7" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>พ</v>
       </c>
       <c r="BM7" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>ศ</v>
       </c>
       <c r="BN7" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>ส</v>
       </c>
       <c r="BO7" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>อ</v>
       </c>
     </row>
@@ -3126,239 +3225,239 @@
       <c r="J8" s="78"/>
       <c r="K8" s="76"/>
       <c r="L8" s="38" t="str">
-        <f t="shared" ref="L8:U12" ca="1" si="6">IF(AND($C8="Goal",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1),1,""))</f>
+        <f t="shared" ref="L8:U12" ca="1" si="4">IF(AND($C8="Goal",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1),1,""))</f>
         <v/>
       </c>
       <c r="M8" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="N8" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="O8" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="P8" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q8" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="R8" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="S8" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="T8" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="U8" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="V8" s="11" t="str">
+        <f t="shared" ref="V8:AE12" ca="1" si="5">IF(AND($C8="Goal",V$5&gt;=$F8,V$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",V$5&gt;=$F8,V$5&lt;=$F8+$H8-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="W8" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="X8" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Y8" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Z8" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AA8" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AB8" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AC8" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AD8" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AE8" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AF8" s="11" t="str">
+        <f t="shared" ref="AF8:AO12" ca="1" si="6">IF(AND($C8="Goal",AF$5&gt;=$F8,AF$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",AF$5&gt;=$F8,AF$5&lt;=$F8+$H8-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AG8" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="N8" s="11" t="str">
+      <c r="AH8" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="O8" s="11" t="str">
+      <c r="AI8" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="P8" s="11" t="str">
+      <c r="AJ8" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="Q8" s="11" t="str">
+      <c r="AK8" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R8" s="11" t="str">
+      <c r="AL8" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="S8" s="11" t="str">
+      <c r="AM8" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="T8" s="11" t="str">
+      <c r="AN8" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="U8" s="11" t="str">
+      <c r="AO8" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="V8" s="11" t="str">
-        <f t="shared" ref="V8:AE12" ca="1" si="7">IF(AND($C8="Goal",V$5&gt;=$F8,V$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",V$5&gt;=$F8,V$5&lt;=$F8+$H8-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="W8" s="11" t="str">
+      <c r="AP8" s="11" t="str">
+        <f t="shared" ref="AP8:AY12" ca="1" si="7">IF(AND($C8="Goal",AP$5&gt;=$F8,AP$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",AP$5&gt;=$F8,AP$5&lt;=$F8+$H8-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ8" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X8" s="11" t="str">
+      <c r="AR8" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y8" s="11" t="str">
+      <c r="AS8" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z8" s="11" t="str">
+      <c r="AT8" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AA8" s="11" t="str">
+      <c r="AU8" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AB8" s="11" t="str">
+      <c r="AV8" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AC8" s="11" t="str">
+      <c r="AW8" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AD8" s="11" t="str">
+      <c r="AX8" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AE8" s="11" t="str">
+      <c r="AY8" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AF8" s="11" t="str">
-        <f t="shared" ref="AF8:AO12" ca="1" si="8">IF(AND($C8="Goal",AF$5&gt;=$F8,AF$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",AF$5&gt;=$F8,AF$5&lt;=$F8+$H8-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AG8" s="11" t="str">
+      <c r="AZ8" s="11" t="str">
+        <f t="shared" ref="AZ8:BI12" ca="1" si="8">IF(AND($C8="Goal",AZ$5&gt;=$F8,AZ$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",AZ$5&gt;=$F8,AZ$5&lt;=$F8+$H8-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BA8" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AH8" s="11" t="str">
+      <c r="BB8" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AI8" s="11" t="str">
+      <c r="BC8" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AJ8" s="11" t="str">
+      <c r="BD8" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AK8" s="11" t="str">
+      <c r="BE8" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AL8" s="11" t="str">
+      <c r="BF8" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AM8" s="11" t="str">
+      <c r="BG8" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AN8" s="11" t="str">
+      <c r="BH8" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AO8" s="11" t="str">
+      <c r="BI8" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AP8" s="11" t="str">
-        <f t="shared" ref="AP8:AY12" ca="1" si="9">IF(AND($C8="Goal",AP$5&gt;=$F8,AP$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",AP$5&gt;=$F8,AP$5&lt;=$F8+$H8-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ8" s="11" t="str">
+      <c r="BJ8" s="11" t="str">
+        <f t="shared" ref="BJ8:BO12" ca="1" si="9">IF(AND($C8="Goal",BJ$5&gt;=$F8,BJ$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",BJ$5&gt;=$F8,BJ$5&lt;=$F8+$H8-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BK8" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AR8" s="11" t="str">
+      <c r="BL8" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AS8" s="11" t="str">
+      <c r="BM8" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AT8" s="11" t="str">
+      <c r="BN8" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AU8" s="11" t="str">
+      <c r="BO8" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AV8" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AW8" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AX8" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AY8" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AZ8" s="11" t="str">
-        <f t="shared" ref="AZ8:BI12" ca="1" si="10">IF(AND($C8="Goal",AZ$5&gt;=$F8,AZ$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",AZ$5&gt;=$F8,AZ$5&lt;=$F8+$H8-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BA8" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB8" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC8" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD8" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BE8" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BF8" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BG8" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BH8" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BI8" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BJ8" s="11" t="str">
-        <f t="shared" ref="BJ8:BO12" ca="1" si="11">IF(AND($C8="Goal",BJ$5&gt;=$F8,BJ$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",BJ$5&gt;=$F8,BJ$5&lt;=$F8+$H8-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BK8" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BL8" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BM8" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BN8" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BO8" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:67" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B9" s="101" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E9" s="44">
         <v>1</v>
@@ -3385,227 +3484,227 @@
         <v>Complete</v>
       </c>
       <c r="L9" s="38" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="M9" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="N9" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="O9" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="P9" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q9" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="R9" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="S9" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="T9" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="U9" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="V9" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="W9" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="X9" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Y9" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Z9" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AA9" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AB9" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AC9" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AD9" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AE9" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AF9" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="M9" s="11" t="str">
+      <c r="AG9" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="N9" s="11" t="str">
+      <c r="AH9" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="O9" s="11" t="str">
+      <c r="AI9" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="P9" s="11" t="str">
+      <c r="AJ9" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="Q9" s="11" t="str">
+      <c r="AK9" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R9" s="11" t="str">
+      <c r="AL9" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="S9" s="11" t="str">
+      <c r="AM9" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="T9" s="11" t="str">
+      <c r="AN9" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="U9" s="11" t="str">
+      <c r="AO9" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="V9" s="11" t="str">
+      <c r="AP9" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W9" s="11" t="str">
+      <c r="AQ9" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X9" s="11" t="str">
+      <c r="AR9" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y9" s="11" t="str">
+      <c r="AS9" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z9" s="11" t="str">
+      <c r="AT9" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AA9" s="11" t="str">
+      <c r="AU9" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AB9" s="11" t="str">
+      <c r="AV9" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AC9" s="11" t="str">
+      <c r="AW9" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AD9" s="11" t="str">
+      <c r="AX9" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AE9" s="11" t="str">
+      <c r="AY9" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AF9" s="11" t="str">
+      <c r="AZ9" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AG9" s="11" t="str">
+      <c r="BA9" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AH9" s="11" t="str">
+      <c r="BB9" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AI9" s="11" t="str">
+      <c r="BC9" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AJ9" s="11" t="str">
+      <c r="BD9" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AK9" s="11" t="str">
+      <c r="BE9" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AL9" s="11" t="str">
+      <c r="BF9" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AM9" s="11" t="str">
+      <c r="BG9" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AN9" s="11" t="str">
+      <c r="BH9" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AO9" s="11" t="str">
+      <c r="BI9" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AP9" s="11" t="str">
+      <c r="BJ9" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AQ9" s="11" t="str">
+      <c r="BK9" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AR9" s="11" t="str">
+      <c r="BL9" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AS9" s="11" t="str">
+      <c r="BM9" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AT9" s="11" t="str">
+      <c r="BN9" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AU9" s="11" t="str">
+      <c r="BO9" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AV9" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AW9" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AX9" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AY9" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AZ9" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA9" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB9" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC9" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD9" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BE9" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BF9" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BG9" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BH9" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BI9" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BJ9" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BK9" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BL9" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BM9" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BN9" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BO9" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -3632,239 +3731,239 @@
       <c r="J10" s="75"/>
       <c r="K10" s="76"/>
       <c r="L10" s="38" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="M10" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="N10" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="O10" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="P10" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q10" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="R10" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="S10" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="T10" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="U10" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="V10" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="W10" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="X10" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Y10" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Z10" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AA10" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AB10" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AC10" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AD10" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AE10" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AF10" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="M10" s="11" t="str">
+      <c r="AG10" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="N10" s="11" t="str">
+      <c r="AH10" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="O10" s="11" t="str">
+      <c r="AI10" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="P10" s="11" t="str">
+      <c r="AJ10" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="Q10" s="11" t="str">
+      <c r="AK10" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R10" s="11" t="str">
+      <c r="AL10" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="S10" s="11" t="str">
+      <c r="AM10" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="T10" s="11" t="str">
+      <c r="AN10" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="U10" s="11" t="str">
+      <c r="AO10" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="V10" s="11" t="str">
+      <c r="AP10" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W10" s="11" t="str">
+      <c r="AQ10" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X10" s="11" t="str">
+      <c r="AR10" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y10" s="11" t="str">
+      <c r="AS10" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z10" s="11" t="str">
+      <c r="AT10" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AA10" s="11" t="str">
+      <c r="AU10" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AB10" s="11" t="str">
+      <c r="AV10" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AC10" s="11" t="str">
+      <c r="AW10" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AD10" s="11" t="str">
+      <c r="AX10" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AE10" s="11" t="str">
+      <c r="AY10" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AF10" s="11" t="str">
+      <c r="AZ10" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AG10" s="11" t="str">
+      <c r="BA10" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AH10" s="11" t="str">
+      <c r="BB10" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AI10" s="11" t="str">
+      <c r="BC10" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AJ10" s="11" t="str">
+      <c r="BD10" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AK10" s="11" t="str">
+      <c r="BE10" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AL10" s="11" t="str">
+      <c r="BF10" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AM10" s="11" t="str">
+      <c r="BG10" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AN10" s="11" t="str">
+      <c r="BH10" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AO10" s="11" t="str">
+      <c r="BI10" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AP10" s="11" t="str">
+      <c r="BJ10" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AQ10" s="11" t="str">
+      <c r="BK10" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AR10" s="11" t="str">
+      <c r="BL10" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AS10" s="11" t="str">
+      <c r="BM10" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AT10" s="11" t="str">
+      <c r="BN10" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AU10" s="11" t="str">
+      <c r="BO10" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AV10" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AW10" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AX10" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AY10" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AZ10" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA10" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB10" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC10" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD10" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BE10" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BF10" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BG10" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BH10" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BI10" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BJ10" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BK10" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BL10" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BM10" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BN10" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BO10" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:67" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E11" s="44">
         <v>1</v>
@@ -3891,239 +3990,239 @@
         <v>Complete</v>
       </c>
       <c r="L11" s="38" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="M11" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="N11" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="O11" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="P11" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q11" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="R11" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="S11" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="T11" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="U11" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="V11" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="W11" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="X11" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Y11" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Z11" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AA11" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AB11" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AC11" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AD11" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AE11" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AF11" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="M11" s="11" t="str">
+      <c r="AG11" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="N11" s="11" t="str">
+      <c r="AH11" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="O11" s="11" t="str">
+      <c r="AI11" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="P11" s="11" t="str">
+      <c r="AJ11" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="Q11" s="11" t="str">
+      <c r="AK11" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R11" s="11" t="str">
+      <c r="AL11" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="S11" s="11" t="str">
+      <c r="AM11" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="T11" s="11" t="str">
+      <c r="AN11" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="U11" s="11" t="str">
+      <c r="AO11" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="V11" s="11" t="str">
+      <c r="AP11" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W11" s="11" t="str">
+      <c r="AQ11" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X11" s="11" t="str">
+      <c r="AR11" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y11" s="11" t="str">
+      <c r="AS11" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z11" s="11" t="str">
+      <c r="AT11" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AA11" s="11" t="str">
+      <c r="AU11" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AB11" s="11" t="str">
+      <c r="AV11" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AC11" s="11" t="str">
+      <c r="AW11" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AD11" s="11" t="str">
+      <c r="AX11" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AE11" s="11" t="str">
+      <c r="AY11" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AF11" s="11" t="str">
+      <c r="AZ11" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AG11" s="11" t="str">
+      <c r="BA11" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AH11" s="11" t="str">
+      <c r="BB11" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AI11" s="11" t="str">
+      <c r="BC11" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AJ11" s="11" t="str">
+      <c r="BD11" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AK11" s="11" t="str">
+      <c r="BE11" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AL11" s="11" t="str">
+      <c r="BF11" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AM11" s="11" t="str">
+      <c r="BG11" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AN11" s="11" t="str">
+      <c r="BH11" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AO11" s="11" t="str">
+      <c r="BI11" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AP11" s="11" t="str">
+      <c r="BJ11" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AQ11" s="11" t="str">
+      <c r="BK11" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AR11" s="11" t="str">
+      <c r="BL11" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AS11" s="11" t="str">
+      <c r="BM11" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AT11" s="11" t="str">
+      <c r="BN11" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AU11" s="11" t="str">
+      <c r="BO11" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AV11" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AW11" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AX11" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AY11" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AZ11" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA11" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB11" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC11" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD11" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BE11" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BF11" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BG11" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BH11" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BI11" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BJ11" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BK11" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BL11" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BM11" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BN11" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BO11" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:67" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E12" s="44">
         <v>1</v>
@@ -4149,233 +4248,233 @@
         <v>Complete</v>
       </c>
       <c r="L12" s="38" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="M12" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="N12" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="O12" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="P12" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q12" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="R12" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="S12" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="T12" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="U12" s="11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="V12" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="W12" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="X12" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Y12" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Z12" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AA12" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AB12" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AC12" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AD12" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AE12" s="11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AF12" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="M12" s="11" t="str">
+      <c r="AG12" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="N12" s="11" t="str">
+      <c r="AH12" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="O12" s="11" t="str">
+      <c r="AI12" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="P12" s="11" t="str">
+      <c r="AJ12" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="Q12" s="11" t="str">
+      <c r="AK12" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R12" s="11" t="str">
+      <c r="AL12" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="S12" s="11" t="str">
+      <c r="AM12" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="T12" s="11" t="str">
+      <c r="AN12" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="U12" s="11" t="str">
+      <c r="AO12" s="11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="V12" s="11" t="str">
+      <c r="AP12" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W12" s="11" t="str">
+      <c r="AQ12" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X12" s="11" t="str">
+      <c r="AR12" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y12" s="11" t="str">
+      <c r="AS12" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z12" s="11" t="str">
+      <c r="AT12" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AA12" s="11" t="str">
+      <c r="AU12" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AB12" s="11" t="str">
+      <c r="AV12" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AC12" s="11" t="str">
+      <c r="AW12" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AD12" s="11" t="str">
+      <c r="AX12" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AE12" s="11" t="str">
+      <c r="AY12" s="11" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AF12" s="11" t="str">
+      <c r="AZ12" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AG12" s="11" t="str">
+      <c r="BA12" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AH12" s="11" t="str">
+      <c r="BB12" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AI12" s="11" t="str">
+      <c r="BC12" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AJ12" s="11" t="str">
+      <c r="BD12" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AK12" s="11" t="str">
+      <c r="BE12" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AL12" s="11" t="str">
+      <c r="BF12" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AM12" s="11" t="str">
+      <c r="BG12" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AN12" s="11" t="str">
+      <c r="BH12" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AO12" s="11" t="str">
+      <c r="BI12" s="11" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AP12" s="11" t="str">
+      <c r="BJ12" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AQ12" s="11" t="str">
+      <c r="BK12" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AR12" s="11" t="str">
+      <c r="BL12" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AS12" s="11" t="str">
+      <c r="BM12" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AT12" s="11" t="str">
+      <c r="BN12" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AU12" s="11" t="str">
+      <c r="BO12" s="11" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AV12" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AW12" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AX12" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AY12" s="11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AZ12" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA12" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB12" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC12" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD12" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BE12" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BF12" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BG12" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BH12" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BI12" s="11" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BJ12" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BK12" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BL12" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BM12" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BN12" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BO12" s="11" t="str">
-        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:67" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="70"/>
       <c r="D13" s="71"/>
@@ -4454,13 +4553,13 @@
     </row>
     <row r="14" spans="1:67" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E14" s="44">
         <v>1</v>
@@ -4547,13 +4646,13 @@
     </row>
     <row r="15" spans="1:67" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E15" s="48">
         <v>1</v>
@@ -4640,11 +4739,11 @@
     </row>
     <row r="16" spans="1:67" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E16" s="48">
         <v>1</v>
@@ -4731,7 +4830,7 @@
     </row>
     <row r="17" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="70"/>
       <c r="D17" s="71"/>
@@ -4742,249 +4841,249 @@
       </c>
       <c r="G17" s="64">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43797</v>
+        <v>43805</v>
       </c>
       <c r="H17" s="73">
-        <f>H18+H19+H20+H21</f>
-        <v>4</v>
+        <f>H18+H19+H20+H21+H22+H23+H24+H25+H26+H27+H28+H29</f>
+        <v>12</v>
       </c>
       <c r="I17" s="79"/>
       <c r="J17" s="75"/>
       <c r="K17" s="76"/>
       <c r="L17" s="38" t="str">
-        <f t="shared" ref="L17:AQ17" ca="1" si="12">IF(AND($C17="Goal",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ref="L17:AQ17" ca="1" si="10">IF(AND($C17="Goal",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="M17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="N17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="O17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="P17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Q17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="R17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="S17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AC17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AD17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AE17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AF17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AG17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AH17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AI17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AJ17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AK17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AL17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AM17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AN17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AO17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AP17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AQ17" s="11" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AR17" s="11" t="str">
-        <f t="shared" ref="AR17:BO17" ca="1" si="13">IF(AND($C17="Goal",AR$5&gt;=$F17,AR$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AR$5&gt;=$F17,AR$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ref="AR17:BO17" ca="1" si="11">IF(AND($C17="Goal",AR$5&gt;=$F17,AR$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AR$5&gt;=$F17,AR$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AS17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AT17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AU17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AV17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AW17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AX17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AY17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AZ17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BA17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BB17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BC17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BD17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BE17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BF17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BG17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BH17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BI17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BJ17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BK17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BL17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BM17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BN17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BO17" s="11" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E18" s="44">
         <v>1</v>
@@ -5071,17 +5170,17 @@
     </row>
     <row r="19" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="60" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E19" s="48">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F19" s="43">
-        <f>G18</f>
+        <f t="shared" ref="F19:F30" si="12">G18</f>
         <v>43794</v>
       </c>
       <c r="G19" s="43">
@@ -5162,17 +5261,17 @@
     </row>
     <row r="20" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="60" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E20" s="44">
         <v>1</v>
       </c>
       <c r="F20" s="94">
-        <f>G19</f>
+        <f t="shared" si="12"/>
         <v>43795</v>
       </c>
       <c r="G20" s="40">
@@ -5253,17 +5352,17 @@
     </row>
     <row r="21" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="90" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C21" s="98"/>
       <c r="D21" s="49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E21" s="44">
         <v>1</v>
       </c>
       <c r="F21" s="94">
-        <f>G20</f>
+        <f t="shared" si="12"/>
         <v>43796</v>
       </c>
       <c r="G21" s="40">
@@ -5343,27 +5442,38 @@
       <c r="BO21" s="11"/>
     </row>
     <row r="22" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B22" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="64">
-        <f>G21</f>
+      <c r="B22" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="102"/>
+      <c r="D22" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="44">
+        <v>1</v>
+      </c>
+      <c r="F22" s="94">
+        <f t="shared" si="12"/>
         <v>43797</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="103">
+        <v>43798</v>
+      </c>
+      <c r="H22" s="104">
+        <v>1</v>
+      </c>
+      <c r="I22" s="40">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43799</v>
-      </c>
-      <c r="H22" s="96">
-        <f>H23</f>
-        <v>2</v>
-      </c>
-      <c r="I22" s="83"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="76"/>
+        <v>43798</v>
+      </c>
+      <c r="J22" s="105">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I22-Milestones[[#This Row],[End Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="61" t="str">
+        <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
+        <v>Complete</v>
+      </c>
       <c r="L22" s="38"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -5422,37 +5532,37 @@
       <c r="BO22" s="11"/>
     </row>
     <row r="23" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B23" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>4</v>
-      </c>
+      <c r="B23" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="102"/>
       <c r="D23" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="48">
-        <v>0</v>
-      </c>
-      <c r="F23" s="43">
-        <f>F22</f>
-        <v>43797</v>
-      </c>
-      <c r="G23" s="43">
+        <v>49</v>
+      </c>
+      <c r="E23" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="F23" s="94">
+        <f t="shared" si="12"/>
+        <v>43798</v>
+      </c>
+      <c r="G23" s="103">
+        <v>43799</v>
+      </c>
+      <c r="H23" s="104">
+        <v>1</v>
+      </c>
+      <c r="I23" s="40">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43799</v>
       </c>
-      <c r="H23" s="42">
-        <v>2</v>
-      </c>
-      <c r="I23" s="58"/>
-      <c r="J23" s="50">
+      <c r="J23" s="105">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I23-Milestones[[#This Row],[End Date]])</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K23" s="61" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I23-G23&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
+        <v>Complete</v>
       </c>
       <c r="L23" s="38"/>
       <c r="M23" s="11"/>
@@ -5512,27 +5622,38 @@
       <c r="BO23" s="11"/>
     </row>
     <row r="24" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B24" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="63">
-        <f>G23</f>
+      <c r="B24" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="102"/>
+      <c r="D24" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="44">
+        <v>1</v>
+      </c>
+      <c r="F24" s="94">
+        <f t="shared" si="12"/>
         <v>43799</v>
       </c>
-      <c r="G24" s="63">
+      <c r="G24" s="103">
+        <v>43800</v>
+      </c>
+      <c r="H24" s="104">
+        <v>1</v>
+      </c>
+      <c r="I24" s="40">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43801</v>
-      </c>
-      <c r="H24" s="73">
-        <f>H25</f>
-        <v>2</v>
-      </c>
-      <c r="I24" s="79"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="76"/>
+        <v>43800</v>
+      </c>
+      <c r="J24" s="105">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I24-Milestones[[#This Row],[End Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="61" t="str">
+        <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
+        <v>Complete</v>
+      </c>
       <c r="L24" s="38"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -5591,37 +5712,38 @@
       <c r="BO24" s="11"/>
     </row>
     <row r="25" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B25" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>4</v>
-      </c>
+      <c r="B25" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="102"/>
       <c r="D25" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="48">
-        <v>0</v>
-      </c>
-      <c r="F25" s="41">
-        <f>F24</f>
-        <v>43799</v>
-      </c>
-      <c r="G25" s="41">
+        <v>49</v>
+      </c>
+      <c r="E25" s="44">
+        <v>1</v>
+      </c>
+      <c r="F25" s="94">
+        <f t="shared" si="12"/>
+        <v>43800</v>
+      </c>
+      <c r="G25" s="40">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43801</v>
       </c>
-      <c r="H25" s="42">
-        <v>2</v>
-      </c>
-      <c r="I25" s="57"/>
-      <c r="J25" s="50">
+      <c r="H25" s="104">
+        <v>1</v>
+      </c>
+      <c r="I25" s="40">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43801</v>
+      </c>
+      <c r="J25" s="105">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I25-Milestones[[#This Row],[End Date]])</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K25" s="61" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I25-G25&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
+        <v>Complete</v>
       </c>
       <c r="L25" s="38"/>
       <c r="M25" s="11"/>
@@ -5681,27 +5803,38 @@
       <c r="BO25" s="11"/>
     </row>
     <row r="26" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B26" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="63">
-        <f>G25</f>
+      <c r="B26" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="102"/>
+      <c r="D26" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="44">
+        <v>1</v>
+      </c>
+      <c r="F26" s="94">
+        <f t="shared" si="12"/>
         <v>43801</v>
       </c>
-      <c r="G26" s="68">
+      <c r="G26" s="103">
+        <v>43802</v>
+      </c>
+      <c r="H26" s="104">
+        <v>1</v>
+      </c>
+      <c r="I26" s="40">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43803</v>
-      </c>
-      <c r="H26" s="73">
-        <f>H27</f>
-        <v>2</v>
-      </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="76"/>
+        <v>43802</v>
+      </c>
+      <c r="J26" s="105">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I26-Milestones[[#This Row],[End Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="61" t="str">
+        <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
+        <v>Complete</v>
+      </c>
       <c r="L26" s="38"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -5761,36 +5894,36 @@
     </row>
     <row r="27" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="102"/>
+      <c r="D27" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="48">
-        <v>0</v>
-      </c>
-      <c r="F27" s="40">
-        <f>F26</f>
-        <v>43801</v>
-      </c>
-      <c r="G27" s="40">
+      <c r="E27" s="44">
+        <v>1</v>
+      </c>
+      <c r="F27" s="94">
+        <f t="shared" si="12"/>
+        <v>43802</v>
+      </c>
+      <c r="G27" s="103">
+        <v>43803</v>
+      </c>
+      <c r="H27" s="104">
+        <v>1</v>
+      </c>
+      <c r="I27" s="40">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43803</v>
       </c>
-      <c r="H27" s="42">
-        <v>2</v>
-      </c>
-      <c r="I27" s="57"/>
-      <c r="J27" s="50">
+      <c r="J27" s="105">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I27-Milestones[[#This Row],[End Date]])</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K27" s="61" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I27-G27&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
+        <v>Complete</v>
       </c>
       <c r="L27" s="38"/>
       <c r="M27" s="11"/>
@@ -5850,27 +5983,38 @@
       <c r="BO27" s="11"/>
     </row>
     <row r="28" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B28" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="63">
-        <f>G27</f>
+      <c r="B28" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="102"/>
+      <c r="D28" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="44">
+        <v>1</v>
+      </c>
+      <c r="F28" s="94">
+        <f t="shared" si="12"/>
         <v>43803</v>
       </c>
-      <c r="G28" s="68">
+      <c r="G28" s="103">
+        <v>43804</v>
+      </c>
+      <c r="H28" s="104">
+        <v>1</v>
+      </c>
+      <c r="I28" s="40">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43805</v>
-      </c>
-      <c r="H28" s="73">
-        <f>H29</f>
-        <v>2</v>
-      </c>
-      <c r="I28" s="69"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="76"/>
+        <v>43804</v>
+      </c>
+      <c r="J28" s="105">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I28-Milestones[[#This Row],[End Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="61" t="str">
+        <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
+        <v>Complete</v>
+      </c>
       <c r="L28" s="38"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -5929,37 +6073,37 @@
       <c r="BO28" s="11"/>
     </row>
     <row r="29" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B29" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="B29" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="102"/>
       <c r="D29" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="48">
-        <v>0</v>
-      </c>
-      <c r="F29" s="40">
-        <f>F28</f>
-        <v>43803</v>
-      </c>
-      <c r="G29" s="40">
+        <v>49</v>
+      </c>
+      <c r="E29" s="44">
+        <v>1</v>
+      </c>
+      <c r="F29" s="94">
+        <f t="shared" si="12"/>
+        <v>43804</v>
+      </c>
+      <c r="G29" s="103">
+        <v>43805</v>
+      </c>
+      <c r="H29" s="104">
+        <v>1</v>
+      </c>
+      <c r="I29" s="40">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43805</v>
       </c>
-      <c r="H29" s="42">
-        <v>2</v>
-      </c>
-      <c r="I29" s="57"/>
-      <c r="J29" s="50">
+      <c r="J29" s="105">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I29-Milestones[[#This Row],[End Date]])</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K29" s="61" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I29-G29&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
+        <v>Complete</v>
       </c>
       <c r="L29" s="38"/>
       <c r="M29" s="11"/>
@@ -6019,28 +6163,26 @@
       <c r="BO29" s="11"/>
     </row>
     <row r="30" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B30" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="66">
-        <f>G29</f>
+      <c r="B30" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="82"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="64">
+        <f t="shared" si="12"/>
         <v>43805</v>
       </c>
-      <c r="G30" s="66">
+      <c r="G30" s="64">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43813</v>
-      </c>
-      <c r="H30" s="73">
+        <v>43807</v>
+      </c>
+      <c r="H30" s="96">
         <f>H31</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I30" s="83"/>
-      <c r="J30" s="81"/>
+      <c r="J30" s="97"/>
       <c r="K30" s="76"/>
       <c r="L30" s="38"/>
       <c r="M30" s="11"/>
@@ -6100,33 +6242,33 @@
       <c r="BO30" s="11"/>
     </row>
     <row r="31" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B31" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="87" t="s">
+      <c r="B31" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="87" t="s">
-        <v>54</v>
+      <c r="D31" s="49" t="s">
+        <v>49</v>
       </c>
       <c r="E31" s="48">
         <v>0</v>
       </c>
-      <c r="F31" s="86">
+      <c r="F31" s="43">
         <f>F30</f>
         <v>43805</v>
       </c>
-      <c r="G31" s="86">
+      <c r="G31" s="43">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43813</v>
-      </c>
-      <c r="H31" s="88">
-        <v>8</v>
-      </c>
-      <c r="I31" s="89"/>
+        <v>43807</v>
+      </c>
+      <c r="H31" s="42">
+        <v>2</v>
+      </c>
+      <c r="I31" s="58"/>
       <c r="J31" s="50">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I31-Milestones[[#This Row],[End Date]])</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K31" s="61" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I31-G31&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6189,11 +6331,689 @@
       <c r="BN31" s="11"/>
       <c r="BO31" s="11"/>
     </row>
-    <row r="32" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="31"/>
+    <row r="32" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B32" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="70"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="63">
+        <f>G31</f>
+        <v>43807</v>
+      </c>
+      <c r="G32" s="63">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43809</v>
+      </c>
+      <c r="H32" s="73">
+        <f>H33</f>
+        <v>2</v>
+      </c>
+      <c r="I32" s="79"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="11"/>
+      <c r="AN32" s="11"/>
+      <c r="AO32" s="11"/>
+      <c r="AP32" s="11"/>
+      <c r="AQ32" s="11"/>
+      <c r="AR32" s="11"/>
+      <c r="AS32" s="11"/>
+      <c r="AT32" s="11"/>
+      <c r="AU32" s="11"/>
+      <c r="AV32" s="11"/>
+      <c r="AW32" s="11"/>
+      <c r="AX32" s="11"/>
+      <c r="AY32" s="11"/>
+      <c r="AZ32" s="11"/>
+      <c r="BA32" s="11"/>
+      <c r="BB32" s="11"/>
+      <c r="BC32" s="11"/>
+      <c r="BD32" s="11"/>
+      <c r="BE32" s="11"/>
+      <c r="BF32" s="11"/>
+      <c r="BG32" s="11"/>
+      <c r="BH32" s="11"/>
+      <c r="BI32" s="11"/>
+      <c r="BJ32" s="11"/>
+      <c r="BK32" s="11"/>
+      <c r="BL32" s="11"/>
+      <c r="BM32" s="11"/>
+      <c r="BN32" s="11"/>
+      <c r="BO32" s="11"/>
     </row>
-    <row r="33" spans="4:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="31"/>
+    <row r="33" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B33" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="48">
+        <v>0</v>
+      </c>
+      <c r="F33" s="41">
+        <f>F32</f>
+        <v>43807</v>
+      </c>
+      <c r="G33" s="41">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43809</v>
+      </c>
+      <c r="H33" s="42">
+        <v>2</v>
+      </c>
+      <c r="I33" s="57"/>
+      <c r="J33" s="50">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I33-Milestones[[#This Row],[End Date]])</f>
+        <v>18</v>
+      </c>
+      <c r="K33" s="61" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I33-G33&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>On Process</v>
+      </c>
+      <c r="L33" s="38"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="11"/>
+      <c r="AP33" s="11"/>
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="11"/>
+      <c r="AS33" s="11"/>
+      <c r="AT33" s="11"/>
+      <c r="AU33" s="11"/>
+      <c r="AV33" s="11"/>
+      <c r="AW33" s="11"/>
+      <c r="AX33" s="11"/>
+      <c r="AY33" s="11"/>
+      <c r="AZ33" s="11"/>
+      <c r="BA33" s="11"/>
+      <c r="BB33" s="11"/>
+      <c r="BC33" s="11"/>
+      <c r="BD33" s="11"/>
+      <c r="BE33" s="11"/>
+      <c r="BF33" s="11"/>
+      <c r="BG33" s="11"/>
+      <c r="BH33" s="11"/>
+      <c r="BI33" s="11"/>
+      <c r="BJ33" s="11"/>
+      <c r="BK33" s="11"/>
+      <c r="BL33" s="11"/>
+      <c r="BM33" s="11"/>
+      <c r="BN33" s="11"/>
+      <c r="BO33" s="11"/>
+    </row>
+    <row r="34" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B34" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="63">
+        <f>G33</f>
+        <v>43809</v>
+      </c>
+      <c r="G34" s="68">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43811</v>
+      </c>
+      <c r="H34" s="73">
+        <f>H35</f>
+        <v>2</v>
+      </c>
+      <c r="I34" s="69"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="11"/>
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="11"/>
+      <c r="AR34" s="11"/>
+      <c r="AS34" s="11"/>
+      <c r="AT34" s="11"/>
+      <c r="AU34" s="11"/>
+      <c r="AV34" s="11"/>
+      <c r="AW34" s="11"/>
+      <c r="AX34" s="11"/>
+      <c r="AY34" s="11"/>
+      <c r="AZ34" s="11"/>
+      <c r="BA34" s="11"/>
+      <c r="BB34" s="11"/>
+      <c r="BC34" s="11"/>
+      <c r="BD34" s="11"/>
+      <c r="BE34" s="11"/>
+      <c r="BF34" s="11"/>
+      <c r="BG34" s="11"/>
+      <c r="BH34" s="11"/>
+      <c r="BI34" s="11"/>
+      <c r="BJ34" s="11"/>
+      <c r="BK34" s="11"/>
+      <c r="BL34" s="11"/>
+      <c r="BM34" s="11"/>
+      <c r="BN34" s="11"/>
+      <c r="BO34" s="11"/>
+    </row>
+    <row r="35" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B35" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="48">
+        <v>0</v>
+      </c>
+      <c r="F35" s="40">
+        <f>F34</f>
+        <v>43809</v>
+      </c>
+      <c r="G35" s="40">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43811</v>
+      </c>
+      <c r="H35" s="42">
+        <v>2</v>
+      </c>
+      <c r="I35" s="57"/>
+      <c r="J35" s="50">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I35-Milestones[[#This Row],[End Date]])</f>
+        <v>16</v>
+      </c>
+      <c r="K35" s="61" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I35-G35&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>On Process</v>
+      </c>
+      <c r="L35" s="38"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="11"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="11"/>
+      <c r="AS35" s="11"/>
+      <c r="AT35" s="11"/>
+      <c r="AU35" s="11"/>
+      <c r="AV35" s="11"/>
+      <c r="AW35" s="11"/>
+      <c r="AX35" s="11"/>
+      <c r="AY35" s="11"/>
+      <c r="AZ35" s="11"/>
+      <c r="BA35" s="11"/>
+      <c r="BB35" s="11"/>
+      <c r="BC35" s="11"/>
+      <c r="BD35" s="11"/>
+      <c r="BE35" s="11"/>
+      <c r="BF35" s="11"/>
+      <c r="BG35" s="11"/>
+      <c r="BH35" s="11"/>
+      <c r="BI35" s="11"/>
+      <c r="BJ35" s="11"/>
+      <c r="BK35" s="11"/>
+      <c r="BL35" s="11"/>
+      <c r="BM35" s="11"/>
+      <c r="BN35" s="11"/>
+      <c r="BO35" s="11"/>
+    </row>
+    <row r="36" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B36" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="63">
+        <f>G35</f>
+        <v>43811</v>
+      </c>
+      <c r="G36" s="68">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43813</v>
+      </c>
+      <c r="H36" s="73">
+        <f>H37</f>
+        <v>2</v>
+      </c>
+      <c r="I36" s="69"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
+      <c r="AO36" s="11"/>
+      <c r="AP36" s="11"/>
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="11"/>
+      <c r="AS36" s="11"/>
+      <c r="AT36" s="11"/>
+      <c r="AU36" s="11"/>
+      <c r="AV36" s="11"/>
+      <c r="AW36" s="11"/>
+      <c r="AX36" s="11"/>
+      <c r="AY36" s="11"/>
+      <c r="AZ36" s="11"/>
+      <c r="BA36" s="11"/>
+      <c r="BB36" s="11"/>
+      <c r="BC36" s="11"/>
+      <c r="BD36" s="11"/>
+      <c r="BE36" s="11"/>
+      <c r="BF36" s="11"/>
+      <c r="BG36" s="11"/>
+      <c r="BH36" s="11"/>
+      <c r="BI36" s="11"/>
+      <c r="BJ36" s="11"/>
+      <c r="BK36" s="11"/>
+      <c r="BL36" s="11"/>
+      <c r="BM36" s="11"/>
+      <c r="BN36" s="11"/>
+      <c r="BO36" s="11"/>
+    </row>
+    <row r="37" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B37" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="48">
+        <v>1</v>
+      </c>
+      <c r="F37" s="40">
+        <f>F36</f>
+        <v>43811</v>
+      </c>
+      <c r="G37" s="40">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43813</v>
+      </c>
+      <c r="H37" s="42">
+        <v>2</v>
+      </c>
+      <c r="I37" s="57"/>
+      <c r="J37" s="50">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I37-Milestones[[#This Row],[End Date]])</f>
+        <v>14</v>
+      </c>
+      <c r="K37" s="61" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I37-G37&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>On Process</v>
+      </c>
+      <c r="L37" s="38"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="11"/>
+      <c r="AO37" s="11"/>
+      <c r="AP37" s="11"/>
+      <c r="AQ37" s="11"/>
+      <c r="AR37" s="11"/>
+      <c r="AS37" s="11"/>
+      <c r="AT37" s="11"/>
+      <c r="AU37" s="11"/>
+      <c r="AV37" s="11"/>
+      <c r="AW37" s="11"/>
+      <c r="AX37" s="11"/>
+      <c r="AY37" s="11"/>
+      <c r="AZ37" s="11"/>
+      <c r="BA37" s="11"/>
+      <c r="BB37" s="11"/>
+      <c r="BC37" s="11"/>
+      <c r="BD37" s="11"/>
+      <c r="BE37" s="11"/>
+      <c r="BF37" s="11"/>
+      <c r="BG37" s="11"/>
+      <c r="BH37" s="11"/>
+      <c r="BI37" s="11"/>
+      <c r="BJ37" s="11"/>
+      <c r="BK37" s="11"/>
+      <c r="BL37" s="11"/>
+      <c r="BM37" s="11"/>
+      <c r="BN37" s="11"/>
+      <c r="BO37" s="11"/>
+    </row>
+    <row r="38" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B38" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="71"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="66">
+        <f>G37</f>
+        <v>43813</v>
+      </c>
+      <c r="G38" s="66">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43821</v>
+      </c>
+      <c r="H38" s="73">
+        <f>H39</f>
+        <v>8</v>
+      </c>
+      <c r="I38" s="83"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="11"/>
+      <c r="AN38" s="11"/>
+      <c r="AO38" s="11"/>
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="11"/>
+      <c r="AS38" s="11"/>
+      <c r="AT38" s="11"/>
+      <c r="AU38" s="11"/>
+      <c r="AV38" s="11"/>
+      <c r="AW38" s="11"/>
+      <c r="AX38" s="11"/>
+      <c r="AY38" s="11"/>
+      <c r="AZ38" s="11"/>
+      <c r="BA38" s="11"/>
+      <c r="BB38" s="11"/>
+      <c r="BC38" s="11"/>
+      <c r="BD38" s="11"/>
+      <c r="BE38" s="11"/>
+      <c r="BF38" s="11"/>
+      <c r="BG38" s="11"/>
+      <c r="BH38" s="11"/>
+      <c r="BI38" s="11"/>
+      <c r="BJ38" s="11"/>
+      <c r="BK38" s="11"/>
+      <c r="BL38" s="11"/>
+      <c r="BM38" s="11"/>
+      <c r="BN38" s="11"/>
+      <c r="BO38" s="11"/>
+    </row>
+    <row r="39" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B39" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="48">
+        <v>0</v>
+      </c>
+      <c r="F39" s="86">
+        <f>F38</f>
+        <v>43813</v>
+      </c>
+      <c r="G39" s="86">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43821</v>
+      </c>
+      <c r="H39" s="88">
+        <v>8</v>
+      </c>
+      <c r="I39" s="89"/>
+      <c r="J39" s="50">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I39-Milestones[[#This Row],[End Date]])</f>
+        <v>6</v>
+      </c>
+      <c r="K39" s="61" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I39-G39&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>On Process</v>
+      </c>
+      <c r="L39" s="38"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="11"/>
+      <c r="AO39" s="11"/>
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="11"/>
+      <c r="AS39" s="11"/>
+      <c r="AT39" s="11"/>
+      <c r="AU39" s="11"/>
+      <c r="AV39" s="11"/>
+      <c r="AW39" s="11"/>
+      <c r="AX39" s="11"/>
+      <c r="AY39" s="11"/>
+      <c r="AZ39" s="11"/>
+      <c r="BA39" s="11"/>
+      <c r="BB39" s="11"/>
+      <c r="BC39" s="11"/>
+      <c r="BD39" s="11"/>
+      <c r="BE39" s="11"/>
+      <c r="BF39" s="11"/>
+      <c r="BG39" s="11"/>
+      <c r="BH39" s="11"/>
+      <c r="BI39" s="11"/>
+      <c r="BJ39" s="11"/>
+      <c r="BK39" s="11"/>
+      <c r="BL39" s="11"/>
+      <c r="BM39" s="11"/>
+      <c r="BN39" s="11"/>
+      <c r="BO39" s="11"/>
+    </row>
+    <row r="40" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="31"/>
+    </row>
+    <row r="41" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6207,7 +7027,7 @@
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E8 E10:E11 E28 E30 E22 E13 E24 E17:E19">
+  <conditionalFormatting sqref="E7:E8 E10:E11 E36 E38 E30 E13 E32 E17:E19">
     <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6221,7 +7041,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:BO8 L10:BO11 L28:BO30 L22:BO25 L13:BO13 L17:BO19">
+  <conditionalFormatting sqref="L5:BO8 L10:BO11 L36:BO38 L30:BO33 L13:BO13 L17:BO19">
     <cfRule type="expression" dxfId="28" priority="128">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
@@ -6241,7 +7061,7 @@
       <formula>AND(L$5&lt;=EOMONTH($L$5,1),L$5&gt;EOMONTH($L$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:BO31">
+  <conditionalFormatting sqref="L8:BO39">
     <cfRule type="expression" dxfId="24" priority="151" stopIfTrue="1">
       <formula>AND($C8="Low Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
@@ -6296,12 +7116,12 @@
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26:BO30">
+  <conditionalFormatting sqref="L34:BO38">
     <cfRule type="expression" dxfId="17" priority="39">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26 E28 E30">
+  <conditionalFormatting sqref="E34 E36 E38">
     <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6315,22 +7135,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31:BO31">
+  <conditionalFormatting sqref="L39:BO39">
     <cfRule type="expression" dxfId="16" priority="31">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31:BO31">
+  <conditionalFormatting sqref="L39:BO39">
     <cfRule type="expression" dxfId="15" priority="29">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20:BO21">
+  <conditionalFormatting sqref="L20:BO29">
     <cfRule type="expression" dxfId="14" priority="18">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21">
+  <conditionalFormatting sqref="E20:E29">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6368,7 +7188,7 @@
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E31">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6382,7 +7202,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E33">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6396,7 +7216,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
+  <conditionalFormatting sqref="E35">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6410,7 +7230,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="E37">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6424,7 +7244,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E39">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6442,7 +7262,7 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4:G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C31" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C39" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6453,7 +7273,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F23" formula="1"/>
+    <ignoredError sqref="F31" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -6504,7 +7324,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E8 E10:E11 E28 E30 E22 E13 E24 E17:E19</xm:sqref>
+          <xm:sqref>E7:E8 E10:E11 E36 E38 E30 E13 E32 E17:E19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3450C8A0-7296-4F4E-8C2D-67F62EE92A11}">
@@ -6549,7 +7369,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E26 E28 E30</xm:sqref>
+          <xm:sqref>E34 E36 E38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C8C0F9AB-33CE-402D-A35A-DE297F2C3B9A}">
@@ -6564,7 +7384,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E20:E21</xm:sqref>
+          <xm:sqref>E20:E29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{204492DB-C9DC-4A29-B7D2-317B3BB60E18}">
@@ -6594,7 +7414,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E23</xm:sqref>
+          <xm:sqref>E31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7D6D8DC0-8DB6-471B-8654-216B06E96310}">
@@ -6609,7 +7429,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E25</xm:sqref>
+          <xm:sqref>E33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{72B44424-0899-4A95-A18C-814AFD22EEB5}">
@@ -6624,7 +7444,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E27</xm:sqref>
+          <xm:sqref>E35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6E8DB8E0-4C2B-4E51-A644-0734E8A3FFDF}">
@@ -6639,7 +7459,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E29</xm:sqref>
+          <xm:sqref>E37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{29A332D1-8F3D-4822-AAE4-11C27860126D}">
@@ -6654,7 +7474,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E31</xm:sqref>
+          <xm:sqref>E39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="110" id="{C6DA3BC1-C08C-46A6-9965-548C4725E846}">
@@ -6711,7 +7531,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L26:BO27</xm:sqref>
+          <xm:sqref>L34:BO35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="376" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
@@ -6730,7 +7550,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L28:BO30 L10:BO11 L8:BO8 L13:BO13 L22:BO25 L17:BO19</xm:sqref>
+          <xm:sqref>L36:BO38 L10:BO11 L8:BO8 L13:BO13 L30:BO33 L17:BO19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="38" id="{51D83373-D7AE-4D2C-96F5-5741546F32FD}">
@@ -6749,7 +7569,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L31:BO31</xm:sqref>
+          <xm:sqref>L39:BO39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="25" id="{21FC89A8-1110-4FE8-AE4F-B89BB56E6A72}">
@@ -6768,7 +7588,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L20:BO21</xm:sqref>
+          <xm:sqref>L20:BO29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="9" id="{22963F08-ED33-4A2E-B7DC-CED3CC34C068}">
